--- a/Fun Projects/Open Movies/Things to watch.xlsx
+++ b/Fun Projects/Open Movies/Things to watch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitzp\Desktop\GitR\BPF_Projects\Personal_Projects\Fun Projects\Open Movies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitzp\Desktop\GitR\git_repos\personal_projects\Fun Projects\Open Movies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BCE348-FFA2-4B2A-B3AB-31D750C66520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30760C25-11C3-4CC8-9D12-048F9BC5592A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>Type</t>
   </si>
@@ -210,6 +210,12 @@
   <si>
     <t>8 1/2</t>
   </si>
+  <si>
+    <t>The Red Shoes</t>
+  </si>
+  <si>
+    <t>Michael Powell</t>
+  </si>
 </sst>
 </file>
 
@@ -262,12 +268,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:AA999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1760,9 +1767,15 @@
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -29688,5 +29701,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>